--- a/Files/Alien5.xlsx
+++ b/Files/Alien5.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:EE84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
